--- a/biology/Botanique/Begonia_brevirimosa/Begonia_brevirimosa.xlsx
+++ b/biology/Botanique/Begonia_brevirimosa/Begonia_brevirimosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia brevirimosa est une espèce de plantes de la famille des Begoniaceae. Ce bégonia arbustif est originaire de Nouvelle Guinée. L'espèce fait partie de la section Petermannia. Elle a été décrite en 1913 par Edgar Irmscher (1887-1968). L'épithète spécifique est composée à partir du latin brevis, court, et rimosus, crevassé, lézardé.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Nouvelle Guinée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Nouvelle Guinée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 février 2017)[3], Catalogue of Life                                   (6 février 2017)[4] et Tropicos                                           (6 février 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 février 2017), Catalogue of Life                                   (6 février 2017) et Tropicos                                           (6 février 2017) :
 sous-espèce Begonia brevirimosa subsp. brevirimosa
 sous-espèce Begonia brevirimosa subsp. exotica Tebbitt (2004 publ. 2005)</t>
         </is>
